--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Responsavel</t>
   </si>
@@ -34,12 +34,45 @@
   </si>
   <si>
     <t>Alan</t>
+  </si>
+  <si>
+    <t>criar login</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Criar painel</t>
+  </si>
+  <si>
+    <t>Criar tela para adicionar usuários</t>
+  </si>
+  <si>
+    <t>Criar cadastro de loja</t>
+  </si>
+  <si>
+    <t>Arrumar o BD</t>
+  </si>
+  <si>
+    <t>Opção de importação de planilhas para o sistema</t>
+  </si>
+  <si>
+    <t>Lançamento de vendas</t>
+  </si>
+  <si>
+    <t>Lançamento de metas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana </t>
+  </si>
+  <si>
+    <t>Relatórios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,6 +138,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -112,7 +148,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +221,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,9 +273,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,11 +465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +508,131 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>42856</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42860</v>
+      </c>
       <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>42857</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>42862</v>
+      </c>
+      <c r="D5" s="3">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42867</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>42929</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42826</v>
+      </c>
+      <c r="D8" s="3">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42856</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>42856</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3">
+        <v>42967</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43038</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -447,7 +641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -459,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
